--- a/medicine/Psychotrope/Château_Latour-Martillac/Château_Latour-Martillac.xlsx
+++ b/medicine/Psychotrope/Château_Latour-Martillac/Château_Latour-Martillac.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_Latour-Martillac</t>
+          <t>Château_Latour-Martillac</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le château Latour-Martillac, est un domaine viticole situé à Martillac en Gironde. Situé en AOC pessac-léognan, il est classé grand cru dans le classement des vins de Graves.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_Latour-Martillac</t>
+          <t>Château_Latour-Martillac</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Histoire du domaine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Classé dès 1953, le cru doit son nom à la Tour ornant sa cour d'honneur, vestige d'un fortin bâti au XIIe siècle par les ancêtres de Montesquieu. Il attira l'attention d'Edouard Kressmann dès la fondation de sa firme en 1871. Sa pièce de Grattecap, greffée en 1884, contient encore l'entière collection de cépages blancs qu'Edouard Kressmann avait conseillés au propriétaire de l'époque, bientôt devenu son ami. Alfred Kressmann, fils aîné d'Edouard Kressmann, achète le domaine, en 1929. En 1934, il adopte l'étiquette actuelle, barrée « d'or et de sable », dessinée par son fils Jean Kressmann.
 Jean Kressmann, gérant du domaine dès 1940 pour le compte de son père, en hérite en 1955. Il l'a progressivement conduit à ses dimensions actuelles avec ses deux plus jeunes fils, Tristan et Loïc.  
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_Latour-Martillac</t>
+          <t>Château_Latour-Martillac</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,6 +560,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -553,7 +569,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_Latour-Martillac</t>
+          <t>Château_Latour-Martillac</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -571,7 +587,9 @@
           <t>Vin</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Après des vendanges manuelles, les raisins sont rassemblés dans de petites caissettes, pour éviter leur écrasement et réduire autant que possible les oxydations nuisibles à leur fraîcheur. La vinification est conduite de manière à réduire autant que possible les oxydations.  
 Les vins rouges sont ensuite élevés de 18 à 20 mois en barriques de chêne, renouvelées chaque année par tiers. Seules les meilleures cuvées entrent dans le grand vin du château Latour Martillac. 
